--- a/Historias_Usuario/Historia_Usuario.xlsx
+++ b/Historias_Usuario/Historia_Usuario.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairo\Downloads\UNIVERSIDAD\MISIÓN TIC\PROGRAMACIÓN\CICLO 3 - DISEÑO DE SOFTWARE\ProyectoSoftwareRCP\Historias_Usuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5367E2-CDC8-4DBD-9B74-8738854DDF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de usuario" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="67">
   <si>
     <t>HISTORIAS DE USUARIO</t>
   </si>
@@ -160,11 +159,142 @@
   <si>
     <t>Descripción: Adelanto del entregable de documentación final a petición del cliente.</t>
   </si>
+  <si>
+    <t>ID del producto</t>
+  </si>
+  <si>
+    <t>Registro del producto</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Descripción: Yo como administrador o gestor de inventarios necesito registrar los productos en mi inventario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones: Criterios de aceptación:
+-El administrador debe proporcionar los siguientes datos al software:
+-Marca del producto
+-Nombre del producto
+-Fecha de vencimiento del producto
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda del producto </t>
+  </si>
+  <si>
+    <t>Descripción: Yo como administrador o gestor de inventarios necesito visualizar los producto/s que ya registre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones: Criterios de aceptación:
+-El administrador o gestor de inventarios selecciona la opción productos próximos a vencerse o vencidos.
+</t>
+  </si>
+  <si>
+    <t>Editar información del producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción: Yo como administrador o gestor de inventarios requiero poder editar la informacion del producto/s 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones:Criterios de aceptación:
+-El administrador o gestor de inventarios realiza la búsqueda del producto
+-El software le ofrece la opción editar información al respectivo producto
+</t>
+  </si>
+  <si>
+    <t>Eliminar producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones:
+Criterios de aceptación:
+-El administrador o gestor de inventarios selecciona la opción eliminar, el sistema muestra un mensaje de confirmación, si es aceptado se eliminará el producto
+-El usuario no acepta el mensaje , el proceso es cancelado
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones:
+Criterios de aceptación:
+-El administrador o gestor de inventarios selecciona la opción ver listado de los productos próximos a vencerse y muestra el listado de productos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta de productos próximos a vencerse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción: Yo como administrador o gestor de inventarios necesito eliminar un producto. 
+</t>
+  </si>
+  <si>
+    <t>Descripción: 
+Yo como administrador o gestor de inventarios necesito visualizar los productos próximos a vencerse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta de productos vencidos </t>
+  </si>
+  <si>
+    <t>Descripción: 
+Yo como administrador o gestor de inventarios necesito visualizar los productos vencidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones:
+Criterios de aceptación:
+-El  administrador  o gestor de inventarios selecciona  la  acción  de  ver  listado  de los productos vencidos y  el  sistema  muestra  el listado de productos.
+</t>
+  </si>
+  <si>
+    <t>Cambio entre interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción: 
+Yo como administrador o gestor de inventarios necesito recorrer las diferentes interfaces de la pagina. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones:
+Criterios de aceptación:
+-El  administrador  o gestor de inventarios puede seleccionar las interfaces de inicio, listados de productos, productos próximos a vencerse o productos vencidos.
+</t>
+  </si>
+  <si>
+    <t>Descripción: 
+Yo como administrador o gestor de inventarios necesito que mis productos tengan un ID (como Código) para facilitar la identificación y ubicación de los productos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones:
+Criterios de aceptación:
+-El  administrador  o gestor de inventarios puede visualizar en la interfaz de listados de productos un ID de cinco dígitos, los tres primeros números hacen referencia al producto y los ultimos 2 números hacen referencia a la existencia de este mismo. 
+</t>
+  </si>
+  <si>
+    <t>Pre-visualización</t>
+  </si>
+  <si>
+    <t>Refresh-tabla de visualización</t>
+  </si>
+  <si>
+    <t>Descripción: 
+Yo como administrador o gestor de inventarios necesito tener un boton para retirar la visualización de la tabla de productos que voy registrando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción: 
+Yo como administrador o gestor de inventarios necesito tener una pre-visualización de los productos que voy a ir registrando, </t>
+  </si>
+  <si>
+    <t>Observaciones:
+Criterios de aceptación:
+-El  administrador  o gestor de inventarios puede visualizar una tabla en la interfaz de inicio del registro de producto, en la cual se observaran todos los productos que va registrando.</t>
+  </si>
+  <si>
+    <t>Observaciones:
+Criterios de aceptación:
+-El  administrador  o gestor de inventarios puede visualizar en la interfaz de inicio donde se encuentra el registro de productos un boton para retirar la tabla de los productos que va a registrar.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
@@ -329,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,58 +487,61 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="12" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,81 +756,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:F154"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="G325" sqref="G325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="29">
         <v>1</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -706,200 +839,200 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="27">
         <v>44348</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="32">
         <v>6.5</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="32">
         <v>8</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="35">
         <v>2</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -908,200 +1041,200 @@
       <c r="A27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="27">
         <v>44348</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="28">
         <v>1</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="31">
         <v>44228</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="12"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="35">
         <v>3</v>
       </c>
-      <c r="C44" s="12"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="12"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -1110,200 +1243,200 @@
       <c r="A47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="12"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="27">
         <v>44348</v>
       </c>
-      <c r="F47" s="21"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="12"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="28">
         <v>1</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="12"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="31">
         <v>44228</v>
       </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="29">
         <v>4</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="21"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="21"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -1312,200 +1445,200 @@
       <c r="A67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="21"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="27">
         <v>44348</v>
       </c>
-      <c r="F67" s="21"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="21"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E68" s="25">
         <v>2</v>
       </c>
-      <c r="F68" s="21"/>
+      <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="21"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="25">
         <v>3</v>
       </c>
-      <c r="F69" s="21"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="33"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="15"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="21"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="15"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="15"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="21"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="12"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="33"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="19"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="15"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="15"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="15"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="12"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="24"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="21"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="21"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="26">
+      <c r="B84" s="29">
         <v>5</v>
       </c>
-      <c r="C84" s="21"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F84" s="21"/>
+      <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="21"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="12"/>
+      <c r="C86" s="24"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -1514,200 +1647,200 @@
       <c r="A87" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="21"/>
+      <c r="C87" s="16"/>
       <c r="D87" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="25">
+      <c r="E87" s="27">
         <v>44348</v>
       </c>
-      <c r="F87" s="21"/>
+      <c r="F87" s="16"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="21"/>
+      <c r="C88" s="16"/>
       <c r="D88" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="25">
         <v>2</v>
       </c>
-      <c r="F88" s="21"/>
+      <c r="F88" s="16"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="21"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="25">
         <v>3</v>
       </c>
-      <c r="F89" s="21"/>
+      <c r="F89" s="16"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="33"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="19"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="15"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="21"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="16"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="15"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="21"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="15"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="21"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="12"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="24"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="33"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="19"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="16"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="15"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="21"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="16"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="15"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="21"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="16"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="15"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="21"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="12"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="24"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="21"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="21"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="16"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="26">
+      <c r="B104" s="29">
         <v>6</v>
       </c>
-      <c r="C104" s="21"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="E104" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F104" s="21"/>
+      <c r="F104" s="16"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="21"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="16"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="12"/>
+      <c r="C106" s="24"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -1716,200 +1849,200 @@
       <c r="A107" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B107" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="21"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="25">
+      <c r="E107" s="27">
         <v>44348</v>
       </c>
-      <c r="F107" s="21"/>
+      <c r="F107" s="16"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="21"/>
+      <c r="C108" s="16"/>
       <c r="D108" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="30">
+      <c r="E108" s="25">
         <v>1</v>
       </c>
-      <c r="F108" s="21"/>
+      <c r="F108" s="16"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="21"/>
+      <c r="C109" s="16"/>
       <c r="D109" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E109" s="30">
+      <c r="E109" s="25">
         <v>2</v>
       </c>
-      <c r="F109" s="21"/>
+      <c r="F109" s="16"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="33"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="19"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="16"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="15"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="21"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="16"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="15"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="21"/>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="16"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="15"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="21"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="17"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="12"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="24"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B115" s="32"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="33"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="19"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="16"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="15"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="21"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="16"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="15"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="21"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="16"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="15"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="21"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="17"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="12"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="24"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="19"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="21"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="16"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="19"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="21"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="16"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="26">
+      <c r="B124" s="29">
         <v>7</v>
       </c>
-      <c r="C124" s="21"/>
+      <c r="C124" s="16"/>
       <c r="D124" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="26" t="s">
+      <c r="E124" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F124" s="21"/>
+      <c r="F124" s="16"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="21"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="16"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C126" s="12"/>
+      <c r="C126" s="24"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -1918,200 +2051,200 @@
       <c r="A127" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="27" t="s">
+      <c r="B127" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="21"/>
+      <c r="C127" s="16"/>
       <c r="D127" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E127" s="25">
+      <c r="E127" s="27">
         <v>44348</v>
       </c>
-      <c r="F127" s="21"/>
+      <c r="F127" s="16"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B128" s="27" t="s">
+      <c r="B128" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="21"/>
+      <c r="C128" s="16"/>
       <c r="D128" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="30">
+      <c r="E128" s="25">
         <v>2</v>
       </c>
-      <c r="F128" s="21"/>
+      <c r="F128" s="16"/>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C129" s="21"/>
+      <c r="C129" s="16"/>
       <c r="D129" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E129" s="30">
+      <c r="E129" s="25">
         <v>3</v>
       </c>
-      <c r="F129" s="21"/>
+      <c r="F129" s="16"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="34" t="s">
+      <c r="A130" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="33"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="19"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="16"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="15"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="21"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="16"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="15"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="21"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="16"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="15"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="21"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="17"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="12"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="24"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="34" t="s">
+      <c r="A135" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="33"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="19"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="16"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="15"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="21"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="16"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="15"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="21"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="16"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="15"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="21"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="17"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="12"/>
+      <c r="A139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="24"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="19"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="21"/>
+      <c r="A140" s="14"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="16"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="29" t="s">
+      <c r="A141" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="14"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="19"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="21"/>
+      <c r="A143" s="14"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="16"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="26">
+      <c r="B144" s="29">
         <v>8</v>
       </c>
-      <c r="C144" s="21"/>
+      <c r="C144" s="16"/>
       <c r="D144" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E144" s="26" t="s">
+      <c r="E144" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F144" s="21"/>
+      <c r="F144" s="16"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="19"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="21"/>
+      <c r="A145" s="14"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="16"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B146" s="24" t="s">
+      <c r="B146" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="12"/>
+      <c r="C146" s="24"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -2120,133 +2253,133 @@
       <c r="A147" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B147" s="27" t="s">
+      <c r="B147" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C147" s="21"/>
+      <c r="C147" s="16"/>
       <c r="D147" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="25">
+      <c r="E147" s="27">
         <v>44348</v>
       </c>
-      <c r="F147" s="21"/>
+      <c r="F147" s="16"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B148" s="27" t="s">
+      <c r="B148" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C148" s="21"/>
+      <c r="C148" s="16"/>
       <c r="D148" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E148" s="30">
+      <c r="E148" s="25">
         <v>0.9</v>
       </c>
-      <c r="F148" s="21"/>
+      <c r="F148" s="16"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B149" s="27" t="s">
+      <c r="B149" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="21"/>
+      <c r="C149" s="16"/>
       <c r="D149" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E149" s="30">
+      <c r="E149" s="25">
         <v>1</v>
       </c>
-      <c r="F149" s="21"/>
+      <c r="F149" s="16"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B150" s="32"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="33"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="19"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="16"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="15"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="21"/>
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="16"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="15"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="21"/>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="16"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="15"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="21"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="17"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="12"/>
+      <c r="A154" s="22"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="24"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="33"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="19"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="16"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="15"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="21"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="16"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="15"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="21"/>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="16"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="15"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="21"/>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="17"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="12"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="24"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
@@ -2256,214 +2389,1998 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="13"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="14"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="16"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="29">
+        <v>9</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F164" s="16"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="14"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="16"/>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" s="24"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="16"/>
+      <c r="D167" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="27">
+        <v>44349</v>
+      </c>
+      <c r="F167" s="16"/>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="16"/>
+      <c r="D168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="25"/>
+      <c r="F168" s="16"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="16"/>
+      <c r="D169" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="25"/>
+      <c r="F169" s="16"/>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="19"/>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="20"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="21"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="20"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="21"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="20"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="21"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="24"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="19"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="20"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="21"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="20"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="21"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="20"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="21"/>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="22"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="24"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="13"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="13"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="14"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="16"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="29">
+        <v>10</v>
+      </c>
+      <c r="C184" s="16"/>
+      <c r="D184" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F184" s="16"/>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="14"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="16"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C186" s="24"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="16"/>
+      <c r="D187" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="27">
+        <v>44349</v>
+      </c>
+      <c r="F187" s="16"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="16"/>
+      <c r="D188" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="25"/>
+      <c r="F188" s="16"/>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="16"/>
+      <c r="D189" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="25"/>
+      <c r="F189" s="16"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B190" s="18"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="19"/>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="20"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="21"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="20"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="21"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="20"/>
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="21"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="22"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="24"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B195" s="18"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="19"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="20"/>
+      <c r="B196" s="13"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="21"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="20"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="21"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="20"/>
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="21"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="22"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="24"/>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="13"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="13"/>
+      <c r="B202" s="13"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="14"/>
+      <c r="B203" s="15"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="16"/>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204" s="29">
+        <v>11</v>
+      </c>
+      <c r="C204" s="16"/>
+      <c r="D204" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E204" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F204" s="16"/>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="14"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="16"/>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C206" s="24"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="16"/>
+      <c r="D207" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="27">
+        <v>44349</v>
+      </c>
+      <c r="F207" s="16"/>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="16"/>
+      <c r="D208" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="F208" s="16"/>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="16"/>
+      <c r="D209" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="25">
+        <v>1</v>
+      </c>
+      <c r="F209" s="16"/>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B210" s="18"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="19"/>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="20"/>
+      <c r="B211" s="13"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="21"/>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="20"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="21"/>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="20"/>
+      <c r="B213" s="13"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="21"/>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="22"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="24"/>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="18"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="19"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="20"/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="21"/>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="20"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="21"/>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="20"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="21"/>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="22"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="24"/>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="13"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="13"/>
+      <c r="F221" s="13"/>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="13"/>
+      <c r="B222" s="13"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="14"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="16"/>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" s="29">
+        <v>12</v>
+      </c>
+      <c r="C224" s="16"/>
+      <c r="D224" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E224" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F224" s="16"/>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="14"/>
+      <c r="B225" s="15"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="16"/>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" s="24"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="16"/>
+      <c r="D227" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" s="27">
+        <v>44349</v>
+      </c>
+      <c r="F227" s="16"/>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="16"/>
+      <c r="D228" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" s="25"/>
+      <c r="F228" s="16"/>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="16"/>
+      <c r="D229" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" s="25"/>
+      <c r="F229" s="16"/>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B230" s="18"/>
+      <c r="C230" s="18"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="19"/>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="20"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="21"/>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="20"/>
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="21"/>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="20"/>
+      <c r="B233" s="13"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="21"/>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="22"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="24"/>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B235" s="18"/>
+      <c r="C235" s="18"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="19"/>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="20"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="21"/>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="20"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="21"/>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="20"/>
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="21"/>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="22"/>
+      <c r="B239" s="23"/>
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="23"/>
+      <c r="F239" s="24"/>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+    </row>
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+    </row>
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="13"/>
+      <c r="B242" s="13"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
+    </row>
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="14"/>
+      <c r="B243" s="15"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="16"/>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="29">
+        <v>12</v>
+      </c>
+      <c r="C244" s="16"/>
+      <c r="D244" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E244" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F244" s="16"/>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="14"/>
+      <c r="B245" s="15"/>
+      <c r="C245" s="15"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="16"/>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C246" s="24"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="16"/>
+      <c r="D247" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247" s="27">
+        <v>44349</v>
+      </c>
+      <c r="F247" s="16"/>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="16"/>
+      <c r="D248" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E248" s="25"/>
+      <c r="F248" s="16"/>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B249" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="16"/>
+      <c r="D249" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="25"/>
+      <c r="F249" s="16"/>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="19"/>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="20"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="21"/>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="20"/>
+      <c r="B252" s="13"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="21"/>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="20"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="21"/>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="22"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="23"/>
+      <c r="D254" s="23"/>
+      <c r="E254" s="23"/>
+      <c r="F254" s="24"/>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="18"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="19"/>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="20"/>
+      <c r="B256" s="13"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="21"/>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="20"/>
+      <c r="B257" s="13"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="21"/>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="20"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="13"/>
+      <c r="F258" s="21"/>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="22"/>
+      <c r="B259" s="23"/>
+      <c r="C259" s="23"/>
+      <c r="D259" s="23"/>
+      <c r="E259" s="23"/>
+      <c r="F259" s="24"/>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="11"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="13"/>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="13"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="14"/>
+      <c r="B263" s="15"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="16"/>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" s="29">
+        <v>13</v>
+      </c>
+      <c r="C264" s="16"/>
+      <c r="D264" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E264" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F264" s="16"/>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="14"/>
+      <c r="B265" s="15"/>
+      <c r="C265" s="15"/>
+      <c r="D265" s="15"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="16"/>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C266" s="24"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+    </row>
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="16"/>
+      <c r="D267" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267" s="27">
+        <v>44349</v>
+      </c>
+      <c r="F267" s="16"/>
+    </row>
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B268" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268" s="16"/>
+      <c r="D268" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268" s="25"/>
+      <c r="F268" s="16"/>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" s="16"/>
+      <c r="D269" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" s="25"/>
+      <c r="F269" s="16"/>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B270" s="18"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="18"/>
+      <c r="E270" s="18"/>
+      <c r="F270" s="19"/>
+    </row>
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="20"/>
+      <c r="B271" s="13"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="13"/>
+      <c r="F271" s="21"/>
+    </row>
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="20"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
+      <c r="F272" s="21"/>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="20"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="21"/>
+    </row>
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="22"/>
+      <c r="B274" s="23"/>
+      <c r="C274" s="23"/>
+      <c r="D274" s="23"/>
+      <c r="E274" s="23"/>
+      <c r="F274" s="24"/>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B275" s="18"/>
+      <c r="C275" s="18"/>
+      <c r="D275" s="18"/>
+      <c r="E275" s="18"/>
+      <c r="F275" s="19"/>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="20"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13"/>
+      <c r="E276" s="13"/>
+      <c r="F276" s="21"/>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="20"/>
+      <c r="B277" s="13"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="13"/>
+      <c r="E277" s="13"/>
+      <c r="F277" s="21"/>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="20"/>
+      <c r="B278" s="13"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="13"/>
+      <c r="F278" s="21"/>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="22"/>
+      <c r="B279" s="23"/>
+      <c r="C279" s="23"/>
+      <c r="D279" s="23"/>
+      <c r="E279" s="23"/>
+      <c r="F279" s="24"/>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="11"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="13"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="13"/>
+      <c r="E281" s="13"/>
+      <c r="F281" s="13"/>
+    </row>
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="13"/>
+      <c r="B282" s="13"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="13"/>
+      <c r="E282" s="13"/>
+      <c r="F282" s="13"/>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="14"/>
+      <c r="B283" s="15"/>
+      <c r="C283" s="15"/>
+      <c r="D283" s="15"/>
+      <c r="E283" s="15"/>
+      <c r="F283" s="16"/>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" s="29">
+        <v>14</v>
+      </c>
+      <c r="C284" s="16"/>
+      <c r="D284" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E284" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F284" s="16"/>
+    </row>
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="14"/>
+      <c r="B285" s="15"/>
+      <c r="C285" s="15"/>
+      <c r="D285" s="15"/>
+      <c r="E285" s="15"/>
+      <c r="F285" s="16"/>
+    </row>
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C286" s="24"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+    </row>
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="16"/>
+      <c r="D287" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287" s="27">
+        <v>44349</v>
+      </c>
+      <c r="F287" s="16"/>
+    </row>
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B288" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" s="16"/>
+      <c r="D288" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E288" s="25"/>
+      <c r="F288" s="16"/>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B289" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" s="16"/>
+      <c r="D289" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E289" s="25"/>
+      <c r="F289" s="16"/>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B290" s="18"/>
+      <c r="C290" s="18"/>
+      <c r="D290" s="18"/>
+      <c r="E290" s="18"/>
+      <c r="F290" s="19"/>
+    </row>
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="20"/>
+      <c r="B291" s="13"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="13"/>
+      <c r="E291" s="13"/>
+      <c r="F291" s="21"/>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="20"/>
+      <c r="B292" s="13"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="13"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="21"/>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="20"/>
+      <c r="B293" s="13"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="13"/>
+      <c r="E293" s="13"/>
+      <c r="F293" s="21"/>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="22"/>
+      <c r="B294" s="23"/>
+      <c r="C294" s="23"/>
+      <c r="D294" s="23"/>
+      <c r="E294" s="23"/>
+      <c r="F294" s="24"/>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B295" s="18"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="18"/>
+      <c r="E295" s="18"/>
+      <c r="F295" s="19"/>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="20"/>
+      <c r="B296" s="13"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13"/>
+      <c r="F296" s="21"/>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="20"/>
+      <c r="B297" s="13"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="13"/>
+      <c r="E297" s="13"/>
+      <c r="F297" s="21"/>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="20"/>
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="13"/>
+      <c r="F298" s="21"/>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="22"/>
+      <c r="B299" s="23"/>
+      <c r="C299" s="23"/>
+      <c r="D299" s="23"/>
+      <c r="E299" s="23"/>
+      <c r="F299" s="24"/>
+    </row>
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="11"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B301" s="13"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="13"/>
+      <c r="B302" s="13"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="13"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="13"/>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="14"/>
+      <c r="B303" s="15"/>
+      <c r="C303" s="15"/>
+      <c r="D303" s="15"/>
+      <c r="E303" s="15"/>
+      <c r="F303" s="16"/>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B304" s="29">
+        <v>15</v>
+      </c>
+      <c r="C304" s="16"/>
+      <c r="D304" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E304" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F304" s="16"/>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="14"/>
+      <c r="B305" s="15"/>
+      <c r="C305" s="15"/>
+      <c r="D305" s="15"/>
+      <c r="E305" s="15"/>
+      <c r="F305" s="16"/>
+    </row>
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B306" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C306" s="24"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B307" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" s="16"/>
+      <c r="D307" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307" s="27">
+        <v>44349</v>
+      </c>
+      <c r="F307" s="16"/>
+    </row>
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B308" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" s="16"/>
+      <c r="D308" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" s="25"/>
+      <c r="F308" s="16"/>
+    </row>
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B309" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C309" s="16"/>
+      <c r="D309" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E309" s="25"/>
+      <c r="F309" s="16"/>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B310" s="18"/>
+      <c r="C310" s="18"/>
+      <c r="D310" s="18"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="19"/>
+    </row>
+    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="20"/>
+      <c r="B311" s="13"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13"/>
+      <c r="E311" s="13"/>
+      <c r="F311" s="21"/>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="20"/>
+      <c r="B312" s="13"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="21"/>
+    </row>
+    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="20"/>
+      <c r="B313" s="13"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="21"/>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="22"/>
+      <c r="B314" s="23"/>
+      <c r="C314" s="23"/>
+      <c r="D314" s="23"/>
+      <c r="E314" s="23"/>
+      <c r="F314" s="24"/>
+    </row>
+    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B315" s="18"/>
+      <c r="C315" s="18"/>
+      <c r="D315" s="18"/>
+      <c r="E315" s="18"/>
+      <c r="F315" s="19"/>
+    </row>
+    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="20"/>
+      <c r="B316" s="13"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="21"/>
+    </row>
+    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="20"/>
+      <c r="B317" s="13"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="13"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="21"/>
+    </row>
+    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="20"/>
+      <c r="B318" s="13"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="21"/>
+    </row>
+    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="22"/>
+      <c r="B319" s="23"/>
+      <c r="C319" s="23"/>
+      <c r="D319" s="23"/>
+      <c r="E319" s="23"/>
+      <c r="F319" s="24"/>
+    </row>
+    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="11"/>
+      <c r="B320" s="11"/>
+      <c r="C320" s="11"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
+      <c r="F320" s="11"/>
+    </row>
+    <row r="321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B321" s="13"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="13"/>
+      <c r="E321" s="13"/>
+      <c r="F321" s="13"/>
+    </row>
+    <row r="322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="13"/>
+      <c r="B322" s="13"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="13"/>
+      <c r="E322" s="13"/>
+      <c r="F322" s="13"/>
+    </row>
+    <row r="323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="14"/>
+      <c r="B323" s="15"/>
+      <c r="C323" s="15"/>
+      <c r="D323" s="15"/>
+      <c r="E323" s="15"/>
+      <c r="F323" s="16"/>
+    </row>
+    <row r="324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" s="29">
+        <v>16</v>
+      </c>
+      <c r="C324" s="16"/>
+      <c r="D324" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E324" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F324" s="16"/>
+    </row>
+    <row r="325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="14"/>
+      <c r="B325" s="15"/>
+      <c r="C325" s="15"/>
+      <c r="D325" s="15"/>
+      <c r="E325" s="15"/>
+      <c r="F325" s="16"/>
+    </row>
+    <row r="326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C326" s="24"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+    </row>
+    <row r="327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B327" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" s="16"/>
+      <c r="D327" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E327" s="27">
+        <v>44349</v>
+      </c>
+      <c r="F327" s="16"/>
+    </row>
+    <row r="328" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" s="16"/>
+      <c r="D328" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328" s="25"/>
+      <c r="F328" s="16"/>
+    </row>
+    <row r="329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B329" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C329" s="16"/>
+      <c r="D329" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" s="25"/>
+      <c r="F329" s="16"/>
+    </row>
+    <row r="330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B330" s="18"/>
+      <c r="C330" s="18"/>
+      <c r="D330" s="18"/>
+      <c r="E330" s="18"/>
+      <c r="F330" s="19"/>
+    </row>
+    <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="20"/>
+      <c r="B331" s="13"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="13"/>
+      <c r="E331" s="13"/>
+      <c r="F331" s="21"/>
+    </row>
+    <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="20"/>
+      <c r="B332" s="13"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="21"/>
+    </row>
+    <row r="333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="20"/>
+      <c r="B333" s="13"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="21"/>
+    </row>
+    <row r="334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="22"/>
+      <c r="B334" s="23"/>
+      <c r="C334" s="23"/>
+      <c r="D334" s="23"/>
+      <c r="E334" s="23"/>
+      <c r="F334" s="24"/>
+    </row>
+    <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B335" s="18"/>
+      <c r="C335" s="18"/>
+      <c r="D335" s="18"/>
+      <c r="E335" s="18"/>
+      <c r="F335" s="19"/>
+    </row>
+    <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="20"/>
+      <c r="B336" s="13"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="21"/>
+    </row>
+    <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="20"/>
+      <c r="B337" s="13"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="13"/>
+      <c r="E337" s="13"/>
+      <c r="F337" s="21"/>
+    </row>
+    <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="20"/>
+      <c r="B338" s="13"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="13"/>
+      <c r="E338" s="13"/>
+      <c r="F338" s="21"/>
+    </row>
+    <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="22"/>
+      <c r="B339" s="23"/>
+      <c r="C339" s="23"/>
+      <c r="D339" s="23"/>
+      <c r="E339" s="23"/>
+      <c r="F339" s="24"/>
+    </row>
+    <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="11"/>
+      <c r="B340" s="11"/>
+      <c r="C340" s="11"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
+      <c r="F340" s="11"/>
+    </row>
+    <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B341" s="13"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="13"/>
+      <c r="E341" s="13"/>
+      <c r="F341" s="13"/>
+    </row>
+    <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="13"/>
+      <c r="B342" s="13"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="13"/>
+      <c r="E342" s="13"/>
+      <c r="F342" s="13"/>
+    </row>
+    <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="14"/>
+      <c r="B343" s="15"/>
+      <c r="C343" s="15"/>
+      <c r="D343" s="15"/>
+      <c r="E343" s="15"/>
+      <c r="F343" s="16"/>
+    </row>
+    <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B344" s="29">
+        <v>17</v>
+      </c>
+      <c r="C344" s="16"/>
+      <c r="D344" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E344" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F344" s="16"/>
+    </row>
+    <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="14"/>
+      <c r="B345" s="15"/>
+      <c r="C345" s="15"/>
+      <c r="D345" s="15"/>
+      <c r="E345" s="15"/>
+      <c r="F345" s="16"/>
+    </row>
+    <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B346" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C346" s="24"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+    </row>
+    <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B347" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" s="16"/>
+      <c r="D347" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E347" s="27">
+        <v>44349</v>
+      </c>
+      <c r="F347" s="16"/>
+    </row>
+    <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" s="16"/>
+      <c r="D348" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E348" s="25"/>
+      <c r="F348" s="16"/>
+    </row>
+    <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B349" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C349" s="16"/>
+      <c r="D349" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E349" s="25"/>
+      <c r="F349" s="16"/>
+    </row>
+    <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B350" s="18"/>
+      <c r="C350" s="18"/>
+      <c r="D350" s="18"/>
+      <c r="E350" s="18"/>
+      <c r="F350" s="19"/>
+    </row>
+    <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="20"/>
+      <c r="B351" s="13"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="13"/>
+      <c r="E351" s="13"/>
+      <c r="F351" s="21"/>
+    </row>
+    <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="20"/>
+      <c r="B352" s="13"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="13"/>
+      <c r="E352" s="13"/>
+      <c r="F352" s="21"/>
+    </row>
+    <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="20"/>
+      <c r="B353" s="13"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="13"/>
+      <c r="F353" s="21"/>
+    </row>
+    <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="22"/>
+      <c r="B354" s="23"/>
+      <c r="C354" s="23"/>
+      <c r="D354" s="23"/>
+      <c r="E354" s="23"/>
+      <c r="F354" s="24"/>
+    </row>
+    <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B355" s="18"/>
+      <c r="C355" s="18"/>
+      <c r="D355" s="18"/>
+      <c r="E355" s="18"/>
+      <c r="F355" s="19"/>
+    </row>
+    <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="20"/>
+      <c r="B356" s="13"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="13"/>
+      <c r="F356" s="21"/>
+    </row>
+    <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="20"/>
+      <c r="B357" s="13"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="13"/>
+      <c r="F357" s="21"/>
+    </row>
+    <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="20"/>
+      <c r="B358" s="13"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="13"/>
+      <c r="F358" s="21"/>
+    </row>
+    <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="22"/>
+      <c r="B359" s="23"/>
+      <c r="C359" s="23"/>
+      <c r="D359" s="23"/>
+      <c r="E359" s="23"/>
+      <c r="F359" s="24"/>
+    </row>
+    <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="11"/>
+      <c r="B360" s="11"/>
+      <c r="C360" s="11"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="11"/>
+      <c r="F360" s="11"/>
+    </row>
+    <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3097,7 +5014,242 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="259">
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="E349:F349"/>
+    <mergeCell ref="A350:F354"/>
+    <mergeCell ref="A355:F359"/>
+    <mergeCell ref="A341:F342"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="A345:F345"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="B347:C347"/>
+    <mergeCell ref="E347:F347"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="E348:F348"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="A330:F334"/>
+    <mergeCell ref="A335:F339"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="A310:F314"/>
+    <mergeCell ref="A315:F319"/>
+    <mergeCell ref="A321:F322"/>
+    <mergeCell ref="A323:F323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="E324:F324"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A301:F302"/>
+    <mergeCell ref="A303:F303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="E287:F287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="A290:F294"/>
+    <mergeCell ref="A295:F299"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="A270:F274"/>
+    <mergeCell ref="A275:F279"/>
+    <mergeCell ref="A281:F282"/>
+    <mergeCell ref="A283:F283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="E284:F284"/>
+    <mergeCell ref="A285:F285"/>
+    <mergeCell ref="A261:F262"/>
+    <mergeCell ref="A263:F263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="A250:F254"/>
+    <mergeCell ref="A255:F259"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="A230:F234"/>
+    <mergeCell ref="A235:F239"/>
+    <mergeCell ref="A241:F242"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="A245:F245"/>
+    <mergeCell ref="A221:F222"/>
+    <mergeCell ref="A223:F223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="A210:F214"/>
+    <mergeCell ref="A215:F219"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="A190:F194"/>
+    <mergeCell ref="A195:F199"/>
+    <mergeCell ref="A201:F202"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="A181:F182"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="A185:F185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="A170:F174"/>
+    <mergeCell ref="A175:F179"/>
+    <mergeCell ref="A30:F34"/>
+    <mergeCell ref="A35:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A161:F162"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="A165:F165"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A50:F54"/>
+    <mergeCell ref="A55:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A15:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:F14"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="A90:F94"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="A81:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="A70:F74"/>
+    <mergeCell ref="A75:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A135:F139"/>
+    <mergeCell ref="A130:F134"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="A95:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A115:F119"/>
+    <mergeCell ref="A110:F114"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A101:F102"/>
     <mergeCell ref="A141:F142"/>
     <mergeCell ref="A140:F140"/>
     <mergeCell ref="A123:F123"/>
@@ -3122,106 +5274,11 @@
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A135:F139"/>
-    <mergeCell ref="A130:F134"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="A95:F99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A115:F119"/>
-    <mergeCell ref="A110:F114"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A101:F102"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="A90:F94"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:F14"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A15:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A81:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="A70:F74"/>
-    <mergeCell ref="A75:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A50:F54"/>
-    <mergeCell ref="A55:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:F34"/>
-    <mergeCell ref="A35:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A55" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A55" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>